--- a/server/excel/cw(财务)_Proto.xlsx
+++ b/server/excel/cw(财务)_Proto.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070" activeTab="3"/>
+    <workbookView windowWidth="28695" windowHeight="14070" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CbhsSettleUp(对上结算)" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90">
   <si>
     <t>属性名</t>
   </si>
@@ -257,6 +257,12 @@
   </si>
   <si>
     <t>CbhsReimTerm</t>
+  </si>
+  <si>
+    <t>projectManagerName</t>
+  </si>
+  <si>
+    <t>项目经理名称</t>
   </si>
   <si>
     <t>reimOid</t>
@@ -288,10 +294,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -338,7 +344,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,7 +352,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -362,6 +368,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,14 +396,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -399,15 +404,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -423,17 +457,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -445,37 +471,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -508,187 +514,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -728,60 +734,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -797,7 +749,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -820,8 +772,62 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -833,10 +839,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -845,133 +851,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2221,10 +2227,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="11.25"/>
@@ -2632,6 +2638,20 @@
         <v>16</v>
       </c>
     </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23" s="1">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -2643,7 +2663,7 @@
   <sheetPr/>
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
@@ -2723,10 +2743,10 @@
     </row>
     <row r="3" s="2" customFormat="1" spans="1:13">
       <c r="A3" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
@@ -2744,10 +2764,10 @@
     </row>
     <row r="4" s="3" customFormat="1" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>22</v>
@@ -2758,10 +2778,10 @@
     </row>
     <row r="5" s="3" customFormat="1" spans="1:11">
       <c r="A5" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>22</v>
@@ -2772,10 +2792,10 @@
     </row>
     <row r="6" s="3" customFormat="1" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>49</v>

--- a/server/excel/cw(财务)_Proto.xlsx
+++ b/server/excel/cw(财务)_Proto.xlsx
@@ -294,10 +294,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -344,7 +344,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,7 +352,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,13 +368,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -396,6 +389,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -404,44 +405,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -457,9 +429,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -471,17 +451,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -514,6 +514,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -526,19 +556,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,13 +616,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,43 +658,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,85 +694,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,6 +734,60 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -749,7 +803,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -772,62 +826,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -839,10 +839,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -851,7 +851,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -860,124 +860,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2229,8 +2229,8 @@
   <sheetPr/>
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="11.25"/>
@@ -2644,6 +2644,9 @@
       </c>
       <c r="B23" s="1" t="s">
         <v>81</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>22</v>
